--- a/src/test/resources/ExcelTestData/OpenCartTestData.xlsx
+++ b/src/test/resources/ExcelTestData/OpenCartTestData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23135201\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23135201\eclipse-workspace\WebApplicationAutomation3\src\test\resources\ExcelTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
     <sheet name="product" sheetId="2" r:id="rId2"/>
+    <sheet name="address" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>FirstName</t>
   </si>
@@ -109,13 +110,115 @@
   </si>
   <si>
     <t>Search - Apple</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Address One</t>
+  </si>
+  <si>
+    <t>Address Two</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Post Code</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Paankaj</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>Unify</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>Ghaziabad</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Deepak</t>
+  </si>
+  <si>
+    <t>Delhi Police</t>
+  </si>
+  <si>
+    <t>Sarita</t>
+  </si>
+  <si>
+    <t>Vihar</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Avdhesh</t>
+  </si>
+  <si>
+    <t>GLS</t>
+  </si>
+  <si>
+    <t>Bilaspur</t>
+  </si>
+  <si>
+    <t>Bhiwadi</t>
+  </si>
+  <si>
+    <t>Gurugram</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Chakki</t>
+  </si>
+  <si>
+    <t>Milik</t>
+  </si>
+  <si>
+    <t>Khair</t>
+  </si>
+  <si>
+    <t>Aligarh</t>
+  </si>
+  <si>
+    <t>200291</t>
+  </si>
+  <si>
+    <t>110098</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,8 +234,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +253,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,13 +291,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -592,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,4 +764,187 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>